--- a/case3_Borate/Excel_Files/_bor_hcl_PCR642Ca.xlsx
+++ b/case3_Borate/Excel_Files/_bor_hcl_PCR642Ca.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1979230255d33e2/Desktop/MEng/MEng_Code/case3_Borate/Excel_Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28820169\Downloads\BO_Papers\MEng_Code\case3_Borate\Excel_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{18D96FF0-7823-4A89-BBF7-F2EA42E08B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77CEABC5-EBBB-4F32-B3D9-7C4402EAA818}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5518519E-BB74-4212-AD1A-01C4BE26C583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1116" yWindow="1116" windowWidth="21624" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3348" yWindow="3348" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="glucose" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2230,7 +2230,7 @@
   <dimension ref="A1:W74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4132,15 +4132,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010048117A934AEAC441AF47E945F1AED0C0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7272456f5b53c8ae1c345851aef95d27">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c39f1452-4462-4979-941b-c1317cfd14ce" xmlns:ns3="60199b31-2299-4531-8872-a3eaba744cbd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="16ed4d68a838bfbb08a7468a1792fb8f" ns2:_="" ns3:_="">
     <xsd:import namespace="c39f1452-4462-4979-941b-c1317cfd14ce"/>
@@ -4397,15 +4388,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21AAFDFA-AF70-4552-A086-9BCC58150335}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF42137A-B7F2-4A60-BAD9-4B8683F12BBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4422,4 +4414,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21AAFDFA-AF70-4552-A086-9BCC58150335}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/case3_Borate/Excel_Files/_bor_hcl_PCR642Ca.xlsx
+++ b/case3_Borate/Excel_Files/_bor_hcl_PCR642Ca.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28820169\Downloads\BO_Papers\MEng_Code\case3_Borate\Excel_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1979230255d33e2/Desktop/MEng/MEng_Code/case3_Borate/Excel_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5518519E-BB74-4212-AD1A-01C4BE26C583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{5518519E-BB74-4212-AD1A-01C4BE26C583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65DEC04E-B7D0-4B64-BB45-AA4C5B4F3665}"/>
   <bookViews>
-    <workbookView xWindow="3348" yWindow="3348" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="glucose" sheetId="1" r:id="rId1"/>
@@ -321,7 +321,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -432,11 +432,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -483,6 +494,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,10 +669,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>glucose!$G$2:$G$35</c:f>
+              <c:f>glucose!$G$3:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>5.5739999999999995E-6</c:v>
                 </c:pt>
@@ -753,9 +765,6 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>4.1159999999999992E-6</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2230,7 +2239,7 @@
   <dimension ref="A1:W74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="G2" sqref="G2:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2347,9 +2356,8 @@
       <c r="F2" s="6">
         <v>0</v>
       </c>
-      <c r="G2" s="20">
-        <f t="shared" ref="G2:G33" si="1">E3*0.000001</f>
-        <v>5.5739999999999995E-6</v>
+      <c r="G2" s="22">
+        <v>0</v>
       </c>
       <c r="H2" s="20">
         <f>F2*0.000001</f>
@@ -2426,11 +2434,11 @@
         <v>154.30500000000001</v>
       </c>
       <c r="G3" s="20">
-        <f t="shared" si="1"/>
-        <v>4.1269999999999996E-6</v>
+        <f>E3*0.000001</f>
+        <v>5.5739999999999995E-6</v>
       </c>
       <c r="H3" s="20">
-        <f t="shared" ref="H3:H33" si="2">F3*0.000001</f>
+        <f t="shared" ref="H3:H33" si="1">F3*0.000001</f>
         <v>1.5430500000000001E-4</v>
       </c>
       <c r="M3" s="3"/>
@@ -2460,11 +2468,11 @@
         <v>149.92500000000001</v>
       </c>
       <c r="G4" s="20">
+        <f>E4*0.000001</f>
+        <v>4.1269999999999996E-6</v>
+      </c>
+      <c r="H4" s="20">
         <f t="shared" si="1"/>
-        <v>4.2569999999999992E-6</v>
-      </c>
-      <c r="H4" s="20">
-        <f t="shared" si="2"/>
         <v>1.49925E-4</v>
       </c>
       <c r="J4" s="6" t="s">
@@ -2498,11 +2506,11 @@
         <v>151.255</v>
       </c>
       <c r="G5" s="20">
+        <f>E5*0.000001</f>
+        <v>4.2569999999999992E-6</v>
+      </c>
+      <c r="H5" s="20">
         <f t="shared" si="1"/>
-        <v>4.1829999999999996E-6</v>
-      </c>
-      <c r="H5" s="20">
-        <f t="shared" si="2"/>
         <v>1.5125499999999999E-4</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -2537,11 +2545,11 @@
         <v>146.51499999999999</v>
       </c>
       <c r="G6" s="20">
+        <f>E6*0.000001</f>
+        <v>4.1829999999999996E-6</v>
+      </c>
+      <c r="H6" s="20">
         <f t="shared" si="1"/>
-        <v>3.4639999999999998E-6</v>
-      </c>
-      <c r="H6" s="20">
-        <f t="shared" si="2"/>
         <v>1.4651499999999998E-4</v>
       </c>
     </row>
@@ -2566,11 +2574,11 @@
         <v>143.33500000000001</v>
       </c>
       <c r="G7" s="20">
+        <f>E7*0.000001</f>
+        <v>3.4639999999999998E-6</v>
+      </c>
+      <c r="H7" s="20">
         <f t="shared" si="1"/>
-        <v>4.0449999999999994E-6</v>
-      </c>
-      <c r="H7" s="20">
-        <f t="shared" si="2"/>
         <v>1.43335E-4</v>
       </c>
     </row>
@@ -2595,11 +2603,11 @@
         <v>143.61500000000001</v>
       </c>
       <c r="G8" s="20">
+        <f>E8*0.000001</f>
+        <v>4.0449999999999994E-6</v>
+      </c>
+      <c r="H8" s="20">
         <f t="shared" si="1"/>
-        <v>4.0820000000000001E-6</v>
-      </c>
-      <c r="H8" s="20">
-        <f t="shared" si="2"/>
         <v>1.4361500000000001E-4</v>
       </c>
       <c r="I8" s="2"/>
@@ -2625,11 +2633,11 @@
         <v>153.19999999999999</v>
       </c>
       <c r="G9" s="20">
+        <f>E9*0.000001</f>
+        <v>4.0820000000000001E-6</v>
+      </c>
+      <c r="H9" s="20">
         <f t="shared" si="1"/>
-        <v>3.8639999999999998E-6</v>
-      </c>
-      <c r="H9" s="20">
-        <f t="shared" si="2"/>
         <v>1.5319999999999998E-4</v>
       </c>
       <c r="I9" s="2"/>
@@ -2655,8 +2663,8 @@
         <v>148.66999999999999</v>
       </c>
       <c r="G10" s="20">
-        <f t="shared" si="1"/>
-        <v>3.827E-6</v>
+        <f>E10*0.000001</f>
+        <v>3.8639999999999998E-6</v>
       </c>
       <c r="H10" s="20">
         <f>F10*0.000001</f>
@@ -2685,11 +2693,11 @@
         <v>381.74</v>
       </c>
       <c r="G11" s="20">
+        <f>E11*0.000001</f>
+        <v>3.827E-6</v>
+      </c>
+      <c r="H11" s="20">
         <f t="shared" si="1"/>
-        <v>1.1164999999999999E-5</v>
-      </c>
-      <c r="H11" s="20">
-        <f t="shared" si="2"/>
         <v>3.8173999999999999E-4</v>
       </c>
     </row>
@@ -2714,11 +2722,11 @@
         <v>3817.2249999999999</v>
       </c>
       <c r="G12" s="20">
+        <f>E12*0.000001</f>
+        <v>1.1164999999999999E-5</v>
+      </c>
+      <c r="H12" s="20">
         <f t="shared" si="1"/>
-        <v>1.2213799999999999E-4</v>
-      </c>
-      <c r="H12" s="20">
-        <f t="shared" si="2"/>
         <v>3.8172249999999996E-3</v>
       </c>
       <c r="I12" s="2"/>
@@ -2744,11 +2752,11 @@
         <v>7418.06</v>
       </c>
       <c r="G13" s="20">
+        <f>E13*0.000001</f>
+        <v>1.2213799999999999E-4</v>
+      </c>
+      <c r="H13" s="20">
         <f t="shared" si="1"/>
-        <v>5.8123599999999995E-4</v>
-      </c>
-      <c r="H13" s="20">
-        <f t="shared" si="2"/>
         <v>7.4180599999999998E-3</v>
       </c>
       <c r="I13" s="2"/>
@@ -2774,11 +2782,11 @@
         <v>8983.25</v>
       </c>
       <c r="G14" s="20">
+        <f>E14*0.000001</f>
+        <v>5.8123599999999995E-4</v>
+      </c>
+      <c r="H14" s="20">
         <f t="shared" si="1"/>
-        <v>6.9794299999999991E-4</v>
-      </c>
-      <c r="H14" s="20">
-        <f t="shared" si="2"/>
         <v>8.9832499999999999E-3</v>
       </c>
       <c r="I14" s="2"/>
@@ -2804,11 +2812,11 @@
         <v>7086.9650000000001</v>
       </c>
       <c r="G15" s="20">
+        <f>E15*0.000001</f>
+        <v>6.9794299999999991E-4</v>
+      </c>
+      <c r="H15" s="20">
         <f t="shared" si="1"/>
-        <v>1.4288009999999999E-3</v>
-      </c>
-      <c r="H15" s="20">
-        <f t="shared" si="2"/>
         <v>7.0869649999999998E-3</v>
       </c>
       <c r="I15" s="2"/>
@@ -2834,11 +2842,11 @@
         <v>9498.64</v>
       </c>
       <c r="G16" s="20">
+        <f>E16*0.000001</f>
+        <v>1.4288009999999999E-3</v>
+      </c>
+      <c r="H16" s="20">
         <f t="shared" si="1"/>
-        <v>1.272979E-3</v>
-      </c>
-      <c r="H16" s="20">
-        <f t="shared" si="2"/>
         <v>9.4986399999999992E-3</v>
       </c>
       <c r="I16" s="2"/>
@@ -2864,11 +2872,11 @@
         <v>8740.9950000000008</v>
       </c>
       <c r="G17" s="20">
+        <f>E17*0.000001</f>
+        <v>1.272979E-3</v>
+      </c>
+      <c r="H17" s="20">
         <f t="shared" si="1"/>
-        <v>1.4341369999999998E-3</v>
-      </c>
-      <c r="H17" s="20">
-        <f t="shared" si="2"/>
         <v>8.7409949999999997E-3</v>
       </c>
       <c r="I17" s="2"/>
@@ -2894,11 +2902,11 @@
         <v>3960.4349999999999</v>
       </c>
       <c r="G18" s="20">
+        <f>E18*0.000001</f>
+        <v>1.4341369999999998E-3</v>
+      </c>
+      <c r="H18" s="20">
         <f t="shared" si="1"/>
-        <v>1.3246709999999999E-3</v>
-      </c>
-      <c r="H18" s="20">
-        <f t="shared" si="2"/>
         <v>3.960435E-3</v>
       </c>
       <c r="I18" s="2"/>
@@ -2924,11 +2932,11 @@
         <v>818.05</v>
       </c>
       <c r="G19" s="20">
+        <f>E19*0.000001</f>
+        <v>1.3246709999999999E-3</v>
+      </c>
+      <c r="H19" s="20">
         <f t="shared" si="1"/>
-        <v>9.1704799999999995E-4</v>
-      </c>
-      <c r="H19" s="20">
-        <f t="shared" si="2"/>
         <v>8.1804999999999996E-4</v>
       </c>
       <c r="I19" s="2"/>
@@ -2954,11 +2962,11 @@
         <v>186.965</v>
       </c>
       <c r="G20" s="20">
+        <f>E20*0.000001</f>
+        <v>9.1704799999999995E-4</v>
+      </c>
+      <c r="H20" s="20">
         <f t="shared" si="1"/>
-        <v>6.3300699999999988E-4</v>
-      </c>
-      <c r="H20" s="20">
-        <f t="shared" si="2"/>
         <v>1.8696499999999998E-4</v>
       </c>
       <c r="I20" s="2"/>
@@ -2984,11 +2992,11 @@
         <v>149.16999999999999</v>
       </c>
       <c r="G21" s="20">
+        <f>E21*0.000001</f>
+        <v>6.3300699999999988E-4</v>
+      </c>
+      <c r="H21" s="20">
         <f t="shared" si="1"/>
-        <v>3.05975E-4</v>
-      </c>
-      <c r="H21" s="20">
-        <f t="shared" si="2"/>
         <v>1.4916999999999998E-4</v>
       </c>
       <c r="I21" s="2"/>
@@ -3014,11 +3022,11 @@
         <v>145.82499999999999</v>
       </c>
       <c r="G22" s="20">
+        <f>E22*0.000001</f>
+        <v>3.05975E-4</v>
+      </c>
+      <c r="H22" s="20">
         <f t="shared" si="1"/>
-        <v>1.2083499999999999E-4</v>
-      </c>
-      <c r="H22" s="20">
-        <f t="shared" si="2"/>
         <v>1.4582499999999998E-4</v>
       </c>
       <c r="I22" s="2"/>
@@ -3044,11 +3052,11 @@
         <v>148.63499999999999</v>
       </c>
       <c r="G23" s="20">
+        <f>E23*0.000001</f>
+        <v>1.2083499999999999E-4</v>
+      </c>
+      <c r="H23" s="20">
         <f t="shared" si="1"/>
-        <v>3.9109999999999997E-5</v>
-      </c>
-      <c r="H23" s="20">
-        <f t="shared" si="2"/>
         <v>1.4863499999999999E-4</v>
       </c>
       <c r="I23" s="2"/>
@@ -3074,11 +3082,11 @@
         <v>157.47</v>
       </c>
       <c r="G24" s="20">
+        <f>E24*0.000001</f>
+        <v>3.9109999999999997E-5</v>
+      </c>
+      <c r="H24" s="20">
         <f t="shared" si="1"/>
-        <v>1.5946999999999998E-5</v>
-      </c>
-      <c r="H24" s="20">
-        <f t="shared" si="2"/>
         <v>1.5746999999999999E-4</v>
       </c>
       <c r="I24" s="2"/>
@@ -3104,11 +3112,11 @@
         <v>149.27500000000001</v>
       </c>
       <c r="G25" s="20">
+        <f>E25*0.000001</f>
+        <v>1.5946999999999998E-5</v>
+      </c>
+      <c r="H25" s="20">
         <f t="shared" si="1"/>
-        <v>7.926E-6</v>
-      </c>
-      <c r="H25" s="20">
-        <f t="shared" si="2"/>
         <v>1.4927500000000001E-4</v>
       </c>
       <c r="I25" s="2"/>
@@ -3134,11 +3142,11 @@
         <v>152.125</v>
       </c>
       <c r="G26" s="20">
+        <f>E26*0.000001</f>
+        <v>7.926E-6</v>
+      </c>
+      <c r="H26" s="20">
         <f t="shared" si="1"/>
-        <v>5.5689999999999995E-6</v>
-      </c>
-      <c r="H26" s="20">
-        <f t="shared" si="2"/>
         <v>1.52125E-4</v>
       </c>
       <c r="I26" s="2"/>
@@ -3164,11 +3172,11 @@
         <v>151.36000000000001</v>
       </c>
       <c r="G27" s="20">
+        <f>E27*0.000001</f>
+        <v>5.5689999999999995E-6</v>
+      </c>
+      <c r="H27" s="20">
         <f t="shared" si="1"/>
-        <v>4.5750000000000002E-6</v>
-      </c>
-      <c r="H27" s="20">
-        <f t="shared" si="2"/>
         <v>1.5136000000000001E-4</v>
       </c>
       <c r="I27" s="2"/>
@@ -3181,7 +3189,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" ref="C28:C33" si="3">B28*$K$5</f>
+        <f t="shared" ref="C28:C33" si="2">B28*$K$5</f>
         <v>15.6</v>
       </c>
       <c r="D28" s="18">
@@ -3194,11 +3202,11 @@
         <v>155.41499999999999</v>
       </c>
       <c r="G28" s="20">
+        <f>E28*0.000001</f>
+        <v>4.5750000000000002E-6</v>
+      </c>
+      <c r="H28" s="20">
         <f t="shared" si="1"/>
-        <v>4.8099999999999997E-6</v>
-      </c>
-      <c r="H28" s="20">
-        <f t="shared" si="2"/>
         <v>1.5541499999999997E-4</v>
       </c>
     </row>
@@ -3210,7 +3218,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>16.2</v>
       </c>
       <c r="D29" s="18">
@@ -3223,11 +3231,11 @@
         <v>132.565</v>
       </c>
       <c r="G29" s="20">
+        <f>E29*0.000001</f>
+        <v>4.8099999999999997E-6</v>
+      </c>
+      <c r="H29" s="20">
         <f t="shared" si="1"/>
-        <v>4.9230000000000001E-6</v>
-      </c>
-      <c r="H29" s="20">
-        <f t="shared" si="2"/>
         <v>1.3256499999999999E-4</v>
       </c>
     </row>
@@ -3239,7 +3247,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>16.8</v>
       </c>
       <c r="D30" s="18">
@@ -3252,11 +3260,11 @@
         <v>129.315</v>
       </c>
       <c r="G30" s="20">
+        <f>E30*0.000001</f>
+        <v>4.9230000000000001E-6</v>
+      </c>
+      <c r="H30" s="20">
         <f t="shared" si="1"/>
-        <v>3.5880000000000002E-5</v>
-      </c>
-      <c r="H30" s="20">
-        <f t="shared" si="2"/>
         <v>1.2931499999999999E-4</v>
       </c>
     </row>
@@ -3268,7 +3276,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>17.399999999999999</v>
       </c>
       <c r="D31" s="18">
@@ -3280,12 +3288,12 @@
       <c r="F31" s="19">
         <v>123.285</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="20">
+        <f>E31*0.000001</f>
+        <v>3.5880000000000002E-5</v>
+      </c>
+      <c r="H31" s="18">
         <f t="shared" si="1"/>
-        <v>3.641E-6</v>
-      </c>
-      <c r="H31" s="18">
-        <f t="shared" si="2"/>
         <v>1.23285E-4</v>
       </c>
     </row>
@@ -3297,7 +3305,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="D32" s="18">
@@ -3310,11 +3318,11 @@
         <v>125.815</v>
       </c>
       <c r="G32" s="18">
+        <f>E32*0.000001</f>
+        <v>3.641E-6</v>
+      </c>
+      <c r="H32" s="18">
         <f t="shared" si="1"/>
-        <v>4.1159999999999992E-6</v>
-      </c>
-      <c r="H32" s="18">
-        <f t="shared" si="2"/>
         <v>1.2581499999999999E-4</v>
       </c>
     </row>
@@ -3326,7 +3334,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>18.599999999999998</v>
       </c>
       <c r="D33" s="18">
@@ -3339,11 +3347,11 @@
         <v>56.28</v>
       </c>
       <c r="G33" s="18">
+        <f>E33*0.000001</f>
+        <v>4.1159999999999992E-6</v>
+      </c>
+      <c r="H33" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="18">
-        <f t="shared" si="2"/>
         <v>5.6279999999999996E-5</v>
       </c>
     </row>
@@ -3351,7 +3359,7 @@
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
+      <c r="G34" s="18"/>
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -4132,6 +4140,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010048117A934AEAC441AF47E945F1AED0C0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7272456f5b53c8ae1c345851aef95d27">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c39f1452-4462-4979-941b-c1317cfd14ce" xmlns:ns3="60199b31-2299-4531-8872-a3eaba744cbd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="16ed4d68a838bfbb08a7468a1792fb8f" ns2:_="" ns3:_="">
     <xsd:import namespace="c39f1452-4462-4979-941b-c1317cfd14ce"/>
@@ -4388,16 +4405,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21AAFDFA-AF70-4552-A086-9BCC58150335}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF42137A-B7F2-4A60-BAD9-4B8683F12BBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4414,12 +4430,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21AAFDFA-AF70-4552-A086-9BCC58150335}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>